--- a/pcb/BOM .xlsx
+++ b/pcb/BOM .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Github\macropad3\dropout-miniusb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\Github\macropad3\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B5F8CA-DC6F-4C64-A080-181CFBCFFA5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3E3D5D-881E-40E3-9432-477602780059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="690" windowWidth="24840" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="1890" windowWidth="24840" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="macropad3" sheetId="1" r:id="rId1"/>
@@ -1008,14 +1008,14 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:L12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
   </cols>
